--- a/data/raw/raw_corinth_leaf_2024_copy_afitch_112625.XLSX
+++ b/data/raw/raw_corinth_leaf_2024_copy_afitch_112625.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia 1 2/Documents/Dartmouth/Corinth_Project/Corinth_HPlab/Corinth_isotope-analysis-/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D8872-A8FC-2641-B0C6-B3786DAD3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732CF54B-8D5D-8043-9562-B97A3AC8CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="12460" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="20080" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unknowns" sheetId="1" r:id="rId1"/>
@@ -348,15 +348,9 @@
     <t>G-86282</t>
   </si>
   <si>
-    <t>10_5 C ACSA 1</t>
-  </si>
-  <si>
     <t>G-86283</t>
   </si>
   <si>
-    <t>10_5 C ACSA 2</t>
-  </si>
-  <si>
     <t>G-86284</t>
   </si>
   <si>
@@ -1575,9 +1569,6 @@
     <t>G-86488</t>
   </si>
   <si>
-    <t>8 10_5 E ACRU</t>
-  </si>
-  <si>
     <t>G-86489</t>
   </si>
   <si>
@@ -2857,6 +2848,15 @@
   </si>
   <si>
     <t>1 10_5 E ACRU</t>
+  </si>
+  <si>
+    <t>10_5 ACSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 10_5 C ACSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 10_5 C ACSA </t>
   </si>
 </sst>
 </file>
@@ -3209,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3229,25 +3229,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" t="s">
         <v>613</v>
-      </c>
-      <c r="D1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" t="s">
-        <v>616</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="H2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3299,7 +3299,7 @@
         <v>1.07</v>
       </c>
       <c r="H3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
         <v>1.623</v>
       </c>
       <c r="H4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
         <v>2.1619999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3377,7 +3377,7 @@
         <v>2.42</v>
       </c>
       <c r="H6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,7 +3403,7 @@
         <v>2.8580000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>3.3879999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3455,7 +3455,7 @@
         <v>4.016</v>
       </c>
       <c r="H9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3481,7 +3481,7 @@
         <v>1.8069999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3507,7 +3507,7 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="H12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C13" s="2">
         <v>-29.34</v>
@@ -3559,7 +3559,7 @@
         <v>1.8740000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3585,7 +3585,7 @@
         <v>2.141</v>
       </c>
       <c r="H14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3611,7 +3611,7 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="H15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3637,7 +3637,7 @@
         <v>3.1760000000000002</v>
       </c>
       <c r="H16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="H18" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>1.905</v>
       </c>
       <c r="H19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3741,7 +3741,7 @@
         <v>2.077</v>
       </c>
       <c r="H20" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3757,10 +3757,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>1.9950000000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>2.0489999999999999</v>
       </c>
       <c r="H23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>1.1080000000000001</v>
       </c>
       <c r="H24" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
         <v>2.9510000000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3890,7 +3890,7 @@
         <v>2.8180000000000001</v>
       </c>
       <c r="H26" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>2.73</v>
       </c>
       <c r="H27" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
         <v>1.3380000000000001</v>
       </c>
       <c r="H28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
         <v>1.716</v>
       </c>
       <c r="H29" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
         <v>2.6989999999999998</v>
       </c>
       <c r="H30" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
         <v>3.2440000000000002</v>
       </c>
       <c r="H31" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>2.8849999999999998</v>
       </c>
       <c r="H32" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>3.0630000000000002</v>
       </c>
       <c r="H33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4098,7 +4098,7 @@
         <v>2.661</v>
       </c>
       <c r="H34" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I35" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>2.0830000000000002</v>
       </c>
       <c r="H36" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="H37" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>2.5739999999999998</v>
       </c>
       <c r="H38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -4221,7 +4221,7 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H39" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="H40" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4273,7 +4273,7 @@
         <v>1.881</v>
       </c>
       <c r="H41" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -4299,7 +4299,7 @@
         <v>2.74</v>
       </c>
       <c r="H42" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -4325,7 +4325,7 @@
         <v>2.9340000000000002</v>
       </c>
       <c r="H43" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>2.391</v>
       </c>
       <c r="H44" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>2.653</v>
       </c>
       <c r="H45" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4403,7 +4403,7 @@
         <v>2.4020000000000001</v>
       </c>
       <c r="H46" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4429,7 +4429,7 @@
         <v>2.8239999999999998</v>
       </c>
       <c r="H47" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>3.0409999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,10 +4471,10 @@
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I49" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>1.976</v>
       </c>
       <c r="H50" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
         <v>2.0640000000000001</v>
       </c>
       <c r="H51" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>938</v>
       </c>
       <c r="C52" s="2">
         <v>-29.46</v>
@@ -4552,15 +4552,15 @@
         <v>1.66</v>
       </c>
       <c r="H52" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>939</v>
       </c>
       <c r="C53" s="2">
         <v>-29.05</v>
@@ -4578,15 +4578,15 @@
         <v>2.8109999999999999</v>
       </c>
       <c r="H53" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2">
         <v>-31.1</v>
@@ -4604,15 +4604,15 @@
         <v>1.9179999999999999</v>
       </c>
       <c r="H54" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2">
         <v>-29.99</v>
@@ -4630,15 +4630,15 @@
         <v>2.774</v>
       </c>
       <c r="H55" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2">
         <v>-27.82</v>
@@ -4656,15 +4656,15 @@
         <v>3.3879999999999999</v>
       </c>
       <c r="H56" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2">
         <v>-29.77</v>
@@ -4682,15 +4682,15 @@
         <v>3.0939999999999999</v>
       </c>
       <c r="H57" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2">
         <v>-29.59</v>
@@ -4708,15 +4708,15 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="H58" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2">
         <v>-29.5</v>
@@ -4734,15 +4734,15 @@
         <v>2.468</v>
       </c>
       <c r="H59" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>-29.24</v>
@@ -4760,15 +4760,15 @@
         <v>2.8690000000000002</v>
       </c>
       <c r="H60" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2">
         <v>-29.16</v>
@@ -4786,15 +4786,15 @@
         <v>3.2149999999999999</v>
       </c>
       <c r="H61" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2">
         <v>-29.75</v>
@@ -4812,15 +4812,15 @@
         <v>1.712</v>
       </c>
       <c r="H62" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4828,18 +4828,18 @@
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I63" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2">
         <v>-27.75</v>
@@ -4857,15 +4857,15 @@
         <v>2.048</v>
       </c>
       <c r="H64" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2">
         <v>-25.92</v>
@@ -4883,15 +4883,15 @@
         <v>1.9830000000000001</v>
       </c>
       <c r="H65" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2">
         <v>-30.89</v>
@@ -4909,15 +4909,15 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2">
         <v>-32.270000000000003</v>
@@ -4935,15 +4935,15 @@
         <v>1.736</v>
       </c>
       <c r="H67" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2">
         <v>-29.22</v>
@@ -4961,15 +4961,15 @@
         <v>2.9329999999999998</v>
       </c>
       <c r="H68" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2">
         <v>-28.83</v>
@@ -4987,15 +4987,15 @@
         <v>2.9620000000000002</v>
       </c>
       <c r="H69" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2">
         <v>-30.11</v>
@@ -5013,15 +5013,15 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="H70" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2">
         <v>-27.76</v>
@@ -5039,15 +5039,15 @@
         <v>1.859</v>
       </c>
       <c r="H71" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2">
         <v>-29.06</v>
@@ -5065,15 +5065,15 @@
         <v>2.5840000000000001</v>
       </c>
       <c r="H72" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2">
         <v>-29.71</v>
@@ -5091,15 +5091,15 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="H73" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2">
         <v>-28.46</v>
@@ -5117,15 +5117,15 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="H74" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2">
         <v>-29.08</v>
@@ -5143,15 +5143,15 @@
         <v>2.5270000000000001</v>
       </c>
       <c r="H75" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2">
         <v>-31.35</v>
@@ -5169,15 +5169,15 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="H76" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -5185,18 +5185,18 @@
       <c r="F77" s="2"/>
       <c r="G77" s="1"/>
       <c r="H77" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I77" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" s="2">
         <v>-27.78</v>
@@ -5214,15 +5214,15 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2">
         <v>-25.91</v>
@@ -5240,15 +5240,15 @@
         <v>1.994</v>
       </c>
       <c r="H79" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2">
         <v>-29.64</v>
@@ -5266,15 +5266,15 @@
         <v>2.81</v>
       </c>
       <c r="H80" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2">
         <v>-29.35</v>
@@ -5292,15 +5292,15 @@
         <v>2.6459999999999999</v>
       </c>
       <c r="H81" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C82" s="2">
         <v>-28.63</v>
@@ -5318,15 +5318,15 @@
         <v>1.6419999999999999</v>
       </c>
       <c r="H82" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="2">
         <v>-30.33</v>
@@ -5344,15 +5344,15 @@
         <v>2.702</v>
       </c>
       <c r="H83" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2">
         <v>-28.74</v>
@@ -5370,15 +5370,15 @@
         <v>2.8919999999999999</v>
       </c>
       <c r="H84" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2">
         <v>-28.42</v>
@@ -5396,15 +5396,15 @@
         <v>2.7919999999999998</v>
       </c>
       <c r="H85" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2">
         <v>-29.99</v>
@@ -5422,15 +5422,15 @@
         <v>2.234</v>
       </c>
       <c r="H86" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2">
         <v>-33.4</v>
@@ -5448,15 +5448,15 @@
         <v>1.619</v>
       </c>
       <c r="H87" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88" s="2">
         <v>-28.63</v>
@@ -5474,15 +5474,15 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="H88" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5490,18 +5490,18 @@
       <c r="F89" s="2"/>
       <c r="G89" s="1"/>
       <c r="H89" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I89" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90" s="2">
         <v>-27.83</v>
@@ -5519,15 +5519,15 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="2">
         <v>-26.28</v>
@@ -5545,15 +5545,15 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="H91" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92" s="2">
         <v>-26.01</v>
@@ -5571,15 +5571,15 @@
         <v>1.851</v>
       </c>
       <c r="H92" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2">
         <v>-25.51</v>
@@ -5597,15 +5597,15 @@
         <v>4.1360000000000001</v>
       </c>
       <c r="H93" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2">
         <v>-28.47</v>
@@ -5623,15 +5623,15 @@
         <v>3.105</v>
       </c>
       <c r="H94" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2">
         <v>-32.869999999999997</v>
@@ -5649,15 +5649,15 @@
         <v>2.157</v>
       </c>
       <c r="H95" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C96" s="2">
         <v>-29.95</v>
@@ -5675,15 +5675,15 @@
         <v>3.081</v>
       </c>
       <c r="H96" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C97" s="2">
         <v>-28.26</v>
@@ -5701,15 +5701,15 @@
         <v>3.077</v>
       </c>
       <c r="H97" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C98" s="2">
         <v>-26.33</v>
@@ -5727,15 +5727,15 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="H98" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99" s="2">
         <v>-26.14</v>
@@ -5753,15 +5753,15 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H99" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2">
         <v>-26</v>
@@ -5779,15 +5779,15 @@
         <v>1.542</v>
       </c>
       <c r="H100" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101" s="2">
         <v>-25.96</v>
@@ -5805,15 +5805,15 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="H101" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C102" s="2">
         <v>-25.75</v>
@@ -5831,15 +5831,15 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="H102" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2">
         <v>-25.75</v>
@@ -5857,15 +5857,15 @@
         <v>3.056</v>
       </c>
       <c r="H103" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" s="2">
         <v>-25.7</v>
@@ -5883,15 +5883,15 @@
         <v>3.3610000000000002</v>
       </c>
       <c r="H104" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2">
         <v>-25.59</v>
@@ -5909,15 +5909,15 @@
         <v>4.0419999999999998</v>
       </c>
       <c r="H105" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C106" s="2">
         <v>-29.29</v>
@@ -5935,15 +5935,15 @@
         <v>2.8879999999999999</v>
       </c>
       <c r="H106" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C107" s="2">
         <v>-29.54</v>
@@ -5961,15 +5961,15 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="H107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C108" s="2">
         <v>-28.41</v>
@@ -5987,15 +5987,15 @@
         <v>2.8980000000000001</v>
       </c>
       <c r="H108" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C109" s="2">
         <v>-32.94</v>
@@ -6013,15 +6013,15 @@
         <v>2.589</v>
       </c>
       <c r="H109" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C110" s="2">
         <v>-35.14</v>
@@ -6039,15 +6039,15 @@
         <v>2.177</v>
       </c>
       <c r="H110" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2">
         <v>-32.75</v>
@@ -6065,15 +6065,15 @@
         <v>2.5539999999999998</v>
       </c>
       <c r="H111" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C112" s="2">
         <v>-31.21</v>
@@ -6091,15 +6091,15 @@
         <v>2.754</v>
       </c>
       <c r="H112" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C113" s="2">
         <v>-32.18</v>
@@ -6117,15 +6117,15 @@
         <v>2.206</v>
       </c>
       <c r="H113" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114" s="2">
         <v>-29.73</v>
@@ -6143,15 +6143,15 @@
         <v>2.8029999999999999</v>
       </c>
       <c r="H114" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115" s="2">
         <v>-30.07</v>
@@ -6169,15 +6169,15 @@
         <v>2.8029999999999999</v>
       </c>
       <c r="H115" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C116" s="2">
         <v>-31.2</v>
@@ -6195,15 +6195,15 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="H116" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -6211,18 +6211,18 @@
       <c r="F117" s="2"/>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I117" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C118" s="2">
         <v>-27.73</v>
@@ -6240,15 +6240,15 @@
         <v>2.5880000000000001</v>
       </c>
       <c r="H118" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C119" s="2">
         <v>-25.98</v>
@@ -6266,15 +6266,15 @@
         <v>1.621</v>
       </c>
       <c r="H119" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120" s="2">
         <v>-31.93</v>
@@ -6292,15 +6292,15 @@
         <v>2.4409999999999998</v>
       </c>
       <c r="H120" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C121" s="2">
         <v>-34.01</v>
@@ -6318,15 +6318,15 @@
         <v>2.0539999999999998</v>
       </c>
       <c r="H121" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C122" s="2">
         <v>-32.64</v>
@@ -6344,15 +6344,15 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="H122" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2">
         <v>-30.46</v>
@@ -6370,15 +6370,15 @@
         <v>3.1240000000000001</v>
       </c>
       <c r="H123" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C124" s="2">
         <v>-32.28</v>
@@ -6396,15 +6396,15 @@
         <v>1.5640000000000001</v>
       </c>
       <c r="H124" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C125" s="2">
         <v>-31.76</v>
@@ -6422,15 +6422,15 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="H125" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C126" s="2">
         <v>-31.68</v>
@@ -6448,15 +6448,15 @@
         <v>2.419</v>
       </c>
       <c r="H126" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C127" s="2">
         <v>-30.93</v>
@@ -6474,15 +6474,15 @@
         <v>2.44</v>
       </c>
       <c r="H127" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C128" s="2">
         <v>-34.72</v>
@@ -6500,15 +6500,15 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="H128" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C129" s="2">
         <v>-33.43</v>
@@ -6526,15 +6526,15 @@
         <v>2.198</v>
       </c>
       <c r="H129" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C130" s="2">
         <v>-30.41</v>
@@ -6552,15 +6552,15 @@
         <v>2.8570000000000002</v>
       </c>
       <c r="H130" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6568,18 +6568,18 @@
       <c r="F131" s="2"/>
       <c r="G131" s="1"/>
       <c r="H131" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I131" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C132" s="2">
         <v>-27.74</v>
@@ -6597,15 +6597,15 @@
         <v>2.5409999999999999</v>
       </c>
       <c r="H132" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C133" s="2">
         <v>-26.12</v>
@@ -6623,15 +6623,15 @@
         <v>1.3819999999999999</v>
       </c>
       <c r="H133" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C134" s="2">
         <v>-30.19</v>
@@ -6649,15 +6649,15 @@
         <v>3.5609999999999999</v>
       </c>
       <c r="H134" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C135" s="2">
         <v>-30.14</v>
@@ -6675,15 +6675,15 @@
         <v>3.2370000000000001</v>
       </c>
       <c r="H135" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C136" s="2">
         <v>-29.95</v>
@@ -6701,15 +6701,15 @@
         <v>2.738</v>
       </c>
       <c r="H136" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C137" s="2">
         <v>-32.090000000000003</v>
@@ -6727,15 +6727,15 @@
         <v>2.444</v>
       </c>
       <c r="H137" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C138" s="2">
         <v>-31.82</v>
@@ -6753,15 +6753,15 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="H138" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C139" s="2">
         <v>-31.34</v>
@@ -6779,15 +6779,15 @@
         <v>2.3940000000000001</v>
       </c>
       <c r="H139" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C140" s="2">
         <v>-33.06</v>
@@ -6805,15 +6805,15 @@
         <v>2.0880000000000001</v>
       </c>
       <c r="H140" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C141" s="2">
         <v>-33.700000000000003</v>
@@ -6831,15 +6831,15 @@
         <v>2.2069999999999999</v>
       </c>
       <c r="H141" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C142" s="2">
         <v>-32.619999999999997</v>
@@ -6857,15 +6857,15 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="H142" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C143" s="2">
         <v>-32.61</v>
@@ -6883,15 +6883,15 @@
         <v>2.3809999999999998</v>
       </c>
       <c r="H143" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C144" s="2">
         <v>-31.5</v>
@@ -6909,15 +6909,15 @@
         <v>2.7770000000000001</v>
       </c>
       <c r="H144" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6925,18 +6925,18 @@
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
       <c r="H145" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I145" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C146" s="2">
         <v>-27.72</v>
@@ -6954,15 +6954,15 @@
         <v>2.6150000000000002</v>
       </c>
       <c r="H146" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C147" s="2">
         <v>-26.16</v>
@@ -6980,15 +6980,15 @@
         <v>1.5089999999999999</v>
       </c>
       <c r="H147" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C148" s="2">
         <v>-32.4</v>
@@ -7006,15 +7006,15 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="H148" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C149" s="2">
         <v>-32.549999999999997</v>
@@ -7032,15 +7032,15 @@
         <v>2.4670000000000001</v>
       </c>
       <c r="H149" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C150" s="2">
         <v>-30.51</v>
@@ -7058,15 +7058,15 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="H150" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C151" s="2">
         <v>-31.72</v>
@@ -7084,15 +7084,15 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="H151" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C152" s="2">
         <v>-31.99</v>
@@ -7110,15 +7110,15 @@
         <v>2.367</v>
       </c>
       <c r="H152" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C153" s="2">
         <v>-29.51</v>
@@ -7136,15 +7136,15 @@
         <v>2.9950000000000001</v>
       </c>
       <c r="H153" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C154" s="2">
         <v>-31.32</v>
@@ -7162,15 +7162,15 @@
         <v>2.669</v>
       </c>
       <c r="H154" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C155" s="2">
         <v>-31.12</v>
@@ -7188,15 +7188,15 @@
         <v>2.819</v>
       </c>
       <c r="H155" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C156" s="2">
         <v>-31.6</v>
@@ -7214,15 +7214,15 @@
         <v>2.3889999999999998</v>
       </c>
       <c r="H156" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C157" s="2">
         <v>-32.65</v>
@@ -7240,15 +7240,15 @@
         <v>2.4329999999999998</v>
       </c>
       <c r="H157" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C158" s="2">
         <v>-33.340000000000003</v>
@@ -7266,15 +7266,15 @@
         <v>2.7080000000000002</v>
       </c>
       <c r="H158" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -7282,18 +7282,18 @@
       <c r="F159" s="2"/>
       <c r="G159" s="1"/>
       <c r="H159" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I159" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C160" s="2">
         <v>-27.61</v>
@@ -7311,15 +7311,15 @@
         <v>2.5089999999999999</v>
       </c>
       <c r="H160" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" s="2">
         <v>-26.17</v>
@@ -7337,15 +7337,15 @@
         <v>1.282</v>
       </c>
       <c r="H161" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C162" s="2">
         <v>-31.24</v>
@@ -7363,15 +7363,15 @@
         <v>2.4049999999999998</v>
       </c>
       <c r="H162" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163" s="2">
         <v>-30.67</v>
@@ -7389,15 +7389,15 @@
         <v>2.9209999999999998</v>
       </c>
       <c r="H163" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C164" s="2">
         <v>-31.4</v>
@@ -7415,15 +7415,15 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="H164" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C165" s="2">
         <v>-31.46</v>
@@ -7441,15 +7441,15 @@
         <v>2.9750000000000001</v>
       </c>
       <c r="H165" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C166" s="2">
         <v>-31.8</v>
@@ -7467,15 +7467,15 @@
         <v>2.8650000000000002</v>
       </c>
       <c r="H166" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C167" s="2">
         <v>-32.520000000000003</v>
@@ -7493,15 +7493,15 @@
         <v>2.6440000000000001</v>
       </c>
       <c r="H167" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C168" s="2">
         <v>-31.4</v>
@@ -7519,15 +7519,15 @@
         <v>2.7629999999999999</v>
       </c>
       <c r="H168" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C169" s="2">
         <v>-31.95</v>
@@ -7545,15 +7545,15 @@
         <v>2.1480000000000001</v>
       </c>
       <c r="H169" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C170" s="2">
         <v>-31.7</v>
@@ -7571,15 +7571,15 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="H170" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C171" s="2">
         <v>-31.78</v>
@@ -7597,15 +7597,15 @@
         <v>2.3610000000000002</v>
       </c>
       <c r="H171" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172" s="2">
         <v>-30.87</v>
@@ -7623,15 +7623,15 @@
         <v>2.3580000000000001</v>
       </c>
       <c r="H172" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -7639,18 +7639,18 @@
       <c r="F173" s="2"/>
       <c r="G173" s="1"/>
       <c r="H173" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I173" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C174" s="2">
         <v>-27.74</v>
@@ -7668,15 +7668,15 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H174" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C175" s="2">
         <v>-26.15</v>
@@ -7694,15 +7694,15 @@
         <v>1.339</v>
       </c>
       <c r="H175" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C176" s="2">
         <v>-30.82</v>
@@ -7720,15 +7720,15 @@
         <v>2.5649999999999999</v>
       </c>
       <c r="H176" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177" s="2">
         <v>-29.38</v>
@@ -7746,15 +7746,15 @@
         <v>2.6269999999999998</v>
       </c>
       <c r="H177" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C178" s="2">
         <v>-31.45</v>
@@ -7772,15 +7772,15 @@
         <v>2.3679999999999999</v>
       </c>
       <c r="H178" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C179" s="2">
         <v>-31.19</v>
@@ -7798,15 +7798,15 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C180" s="2">
         <v>-30.92</v>
@@ -7824,15 +7824,15 @@
         <v>2.323</v>
       </c>
       <c r="H180" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C181" s="2">
         <v>-31.28</v>
@@ -7850,15 +7850,15 @@
         <v>2.5339999999999998</v>
       </c>
       <c r="H181" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C182" s="2">
         <v>-32.31</v>
@@ -7876,15 +7876,15 @@
         <v>2.7559999999999998</v>
       </c>
       <c r="H182" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C183" s="2">
         <v>-31.33</v>
@@ -7902,15 +7902,15 @@
         <v>2.3940000000000001</v>
       </c>
       <c r="H183" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C184" s="2">
         <v>-32.01</v>
@@ -7928,15 +7928,15 @@
         <v>2.681</v>
       </c>
       <c r="H184" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7944,18 +7944,18 @@
       <c r="F185" s="2"/>
       <c r="G185" s="1"/>
       <c r="H185" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I185" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C186" s="2">
         <v>-27.71</v>
@@ -7973,15 +7973,15 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="H186" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C187" s="2">
         <v>-26.08</v>
@@ -7999,15 +7999,15 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="H187" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C188" s="2">
         <v>-26</v>
@@ -8025,15 +8025,15 @@
         <v>1.6919999999999999</v>
       </c>
       <c r="H188" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C189" s="2">
         <v>-25.94</v>
@@ -8051,15 +8051,15 @@
         <v>1.9390000000000001</v>
       </c>
       <c r="H189" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C190" s="2">
         <v>-32.08</v>
@@ -8077,15 +8077,15 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="H190" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C191" s="2">
         <v>-32.450000000000003</v>
@@ -8103,15 +8103,15 @@
         <v>2.3620000000000001</v>
       </c>
       <c r="H191" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C192" s="2">
         <v>-31.81</v>
@@ -8129,15 +8129,15 @@
         <v>2.5350000000000001</v>
       </c>
       <c r="H192" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C193" s="2">
         <v>-30.67</v>
@@ -8155,15 +8155,15 @@
         <v>2.681</v>
       </c>
       <c r="H193" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C194" s="2">
         <v>-25.93</v>
@@ -8181,15 +8181,15 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="H194" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C195" s="2">
         <v>-25.88</v>
@@ -8207,15 +8207,15 @@
         <v>1.069</v>
       </c>
       <c r="H195" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C196" s="2">
         <v>-26.41</v>
@@ -8233,15 +8233,15 @@
         <v>1.401</v>
       </c>
       <c r="H196" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C197" s="2">
         <v>-25.92</v>
@@ -8259,15 +8259,15 @@
         <v>2.1080000000000001</v>
       </c>
       <c r="H197" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C198" s="2">
         <v>-25.83</v>
@@ -8285,15 +8285,15 @@
         <v>2.5329999999999999</v>
       </c>
       <c r="H198" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C199" s="2">
         <v>-25.78</v>
@@ -8311,15 +8311,15 @@
         <v>3.069</v>
       </c>
       <c r="H199" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C200" s="2">
         <v>-25.69</v>
@@ -8337,15 +8337,15 @@
         <v>3.6309999999999998</v>
       </c>
       <c r="H200" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C201" s="2">
         <v>-25.66</v>
@@ -8363,15 +8363,15 @@
         <v>4.1150000000000002</v>
       </c>
       <c r="H201" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C202" s="2">
         <v>-33.01</v>
@@ -8389,15 +8389,15 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="H202" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C203" s="2">
         <v>-32.56</v>
@@ -8415,15 +8415,15 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="H203" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C204" s="2">
         <v>-32</v>
@@ -8441,15 +8441,15 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="H204" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C205" s="2">
         <v>-30.27</v>
@@ -8467,15 +8467,15 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="H205" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C206" s="2">
         <v>-30.64</v>
@@ -8493,15 +8493,15 @@
         <v>2.7280000000000002</v>
       </c>
       <c r="H206" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C207" s="2">
         <v>-31.48</v>
@@ -8519,15 +8519,15 @@
         <v>2.6469999999999998</v>
       </c>
       <c r="H207" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" s="2">
         <v>-33.74</v>
@@ -8545,15 +8545,15 @@
         <v>2.3340000000000001</v>
       </c>
       <c r="H208" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C209" s="2">
         <v>-35.549999999999997</v>
@@ -8571,15 +8571,15 @@
         <v>2.4169999999999998</v>
       </c>
       <c r="H209" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C210" s="2">
         <v>-30.22</v>
@@ -8597,15 +8597,15 @@
         <v>2.528</v>
       </c>
       <c r="H210" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C211" s="2">
         <v>-32.03</v>
@@ -8623,15 +8623,15 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="H211" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C212" s="2">
         <v>-33.54</v>
@@ -8649,15 +8649,15 @@
         <v>2.1659999999999999</v>
       </c>
       <c r="H212" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -8665,18 +8665,18 @@
       <c r="F213" s="2"/>
       <c r="G213" s="1"/>
       <c r="H213" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I213" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C214" s="2">
         <v>-27.77</v>
@@ -8694,15 +8694,15 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H214" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C215" s="2">
         <v>-26.06</v>
@@ -8720,15 +8720,15 @@
         <v>1.597</v>
       </c>
       <c r="H215" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B216" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C216" s="2">
         <v>-31.51</v>
@@ -8746,15 +8746,15 @@
         <v>2.5710000000000002</v>
       </c>
       <c r="H216" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C217" s="2">
         <v>-34.54</v>
@@ -8772,15 +8772,15 @@
         <v>2.9249999999999998</v>
       </c>
       <c r="H217" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C218" s="2">
         <v>-31.94</v>
@@ -8798,15 +8798,15 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="H218" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B219" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C219" s="2">
         <v>-31.21</v>
@@ -8824,15 +8824,15 @@
         <v>2.4689999999999999</v>
       </c>
       <c r="H219" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C220" s="2">
         <v>-33</v>
@@ -8850,15 +8850,15 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C221" s="2">
         <v>-31.82</v>
@@ -8876,15 +8876,15 @@
         <v>2.52</v>
       </c>
       <c r="H221" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C222" s="2">
         <v>-31.86</v>
@@ -8902,15 +8902,15 @@
         <v>2.448</v>
       </c>
       <c r="H222" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C223" s="2">
         <v>-32.119999999999997</v>
@@ -8928,15 +8928,15 @@
         <v>2.2360000000000002</v>
       </c>
       <c r="H223" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C224" s="2">
         <v>-32.9</v>
@@ -8954,15 +8954,15 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C225" s="2">
         <v>-30.94</v>
@@ -8980,15 +8980,15 @@
         <v>2.524</v>
       </c>
       <c r="H225" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B226" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C226" s="2">
         <v>-31.18</v>
@@ -9006,15 +9006,15 @@
         <v>2.718</v>
       </c>
       <c r="H226" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B227" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -9022,18 +9022,18 @@
       <c r="F227" s="2"/>
       <c r="G227" s="1"/>
       <c r="H227" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I227" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B228" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C228" s="2">
         <v>-27.76</v>
@@ -9051,15 +9051,15 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H228" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B229" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C229" s="2">
         <v>-26.03</v>
@@ -9077,15 +9077,15 @@
         <v>1.597</v>
       </c>
       <c r="H229" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B230" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C230" s="2">
         <v>-30.11</v>
@@ -9103,15 +9103,15 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="H230" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C231" s="2">
         <v>-30.56</v>
@@ -9129,15 +9129,15 @@
         <v>2.6179999999999999</v>
       </c>
       <c r="H231" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C232" s="2">
         <v>-31.9</v>
@@ -9155,15 +9155,15 @@
         <v>2.6520000000000001</v>
       </c>
       <c r="H232" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C233" s="2">
         <v>-31.22</v>
@@ -9181,15 +9181,15 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="H233" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B234" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C234" s="2">
         <v>-30.99</v>
@@ -9207,15 +9207,15 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="H234" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C235" s="2">
         <v>-29.35</v>
@@ -9233,15 +9233,15 @@
         <v>2.5920000000000001</v>
       </c>
       <c r="H235" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C236" s="2">
         <v>-30.41</v>
@@ -9259,15 +9259,15 @@
         <v>2.6080000000000001</v>
       </c>
       <c r="H236" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B237" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C237" s="2">
         <v>-29.74</v>
@@ -9285,15 +9285,15 @@
         <v>2.5960000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B238" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C238" s="2">
         <v>-33.08</v>
@@ -9311,15 +9311,15 @@
         <v>2.23</v>
       </c>
       <c r="H238" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C239" s="2">
         <v>-32.659999999999997</v>
@@ -9337,15 +9337,15 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="H239" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C240" s="2">
         <v>-29.26</v>
@@ -9363,15 +9363,15 @@
         <v>2.9409999999999998</v>
       </c>
       <c r="H240" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -9379,18 +9379,18 @@
       <c r="F241" s="2"/>
       <c r="G241" s="1"/>
       <c r="H241" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I241" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C242" s="2">
         <v>-27.78</v>
@@ -9408,15 +9408,15 @@
         <v>2.4729999999999999</v>
       </c>
       <c r="H242" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C243" s="2">
         <v>-25.52</v>
@@ -9434,15 +9434,15 @@
         <v>1.9670000000000001</v>
       </c>
       <c r="H243" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C244" s="2">
         <v>-28.51</v>
@@ -9460,15 +9460,15 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="H244" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B245" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C245" s="2">
         <v>-29.96</v>
@@ -9486,15 +9486,15 @@
         <v>2.5019999999999998</v>
       </c>
       <c r="H245" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B246" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C246" s="2">
         <v>-30.84</v>
@@ -9512,15 +9512,15 @@
         <v>2.5830000000000002</v>
       </c>
       <c r="H246" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B247" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C247" s="2">
         <v>-32.17</v>
@@ -9538,15 +9538,15 @@
         <v>2.6480000000000001</v>
       </c>
       <c r="H247" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B248" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C248" s="2">
         <v>-30.94</v>
@@ -9564,15 +9564,15 @@
         <v>2.5230000000000001</v>
       </c>
       <c r="H248" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B249" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C249" s="2">
         <v>-30.61</v>
@@ -9590,15 +9590,15 @@
         <v>2.3860000000000001</v>
       </c>
       <c r="H249" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B250" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C250" s="2">
         <v>-32.14</v>
@@ -9616,15 +9616,15 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="H250" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B251" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C251" s="2">
         <v>-31.65</v>
@@ -9642,15 +9642,15 @@
         <v>2.4289999999999998</v>
       </c>
       <c r="H251" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C252" s="2">
         <v>-29.94</v>
@@ -9668,15 +9668,15 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H252" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C253" s="2">
         <v>-32.26</v>
@@ -9694,15 +9694,15 @@
         <v>2.7240000000000002</v>
       </c>
       <c r="H253" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B254" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C254" s="2">
         <v>-28.96</v>
@@ -9720,15 +9720,15 @@
         <v>2.9169999999999998</v>
       </c>
       <c r="H254" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B255" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -9736,18 +9736,18 @@
       <c r="F255" s="2"/>
       <c r="G255" s="1"/>
       <c r="H255" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I255" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C256" s="2">
         <v>-27.81</v>
@@ -9765,15 +9765,15 @@
         <v>2.4329999999999998</v>
       </c>
       <c r="H256" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B257" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C257" s="2">
         <v>-26</v>
@@ -9791,15 +9791,15 @@
         <v>1.772</v>
       </c>
       <c r="H257" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B258" t="s">
-        <v>512</v>
+        <v>937</v>
       </c>
       <c r="C258" s="2">
         <v>-29.66</v>
@@ -9817,15 +9817,15 @@
         <v>2.7749999999999999</v>
       </c>
       <c r="H258" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B259" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C259" s="2">
         <v>-32.22</v>
@@ -9843,15 +9843,15 @@
         <v>2.6419999999999999</v>
       </c>
       <c r="H259" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B260" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C260" s="2">
         <v>-32.369999999999997</v>
@@ -9869,15 +9869,15 @@
         <v>2.48</v>
       </c>
       <c r="H260" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B261" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C261" s="2">
         <v>-30.35</v>
@@ -9895,15 +9895,15 @@
         <v>2.6859999999999999</v>
       </c>
       <c r="H261" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B262" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C262" s="2">
         <v>-31.36</v>
@@ -9921,15 +9921,15 @@
         <v>3.2360000000000002</v>
       </c>
       <c r="H262" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B263" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C263" s="2">
         <v>-30.56</v>
@@ -9947,15 +9947,15 @@
         <v>2.4409999999999998</v>
       </c>
       <c r="H263" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B264" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C264" s="2">
         <v>-30.7</v>
@@ -9973,15 +9973,15 @@
         <v>2.347</v>
       </c>
       <c r="H264" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B265" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2">
         <v>-30.86</v>
@@ -9999,15 +9999,15 @@
         <v>2.7010000000000001</v>
       </c>
       <c r="H265" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B266" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C266" s="2">
         <v>-31.11</v>
@@ -10025,15 +10025,15 @@
         <v>2.3149999999999999</v>
       </c>
       <c r="H266" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B267" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C267" s="2">
         <v>-30.46</v>
@@ -10051,15 +10051,15 @@
         <v>2.476</v>
       </c>
       <c r="H267" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B268" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C268" s="2">
         <v>-31.98</v>
@@ -10077,15 +10077,15 @@
         <v>2.3959999999999999</v>
       </c>
       <c r="H268" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B269" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -10093,18 +10093,18 @@
       <c r="F269" s="2"/>
       <c r="G269" s="1"/>
       <c r="H269" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I269" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B270" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C270" s="2">
         <v>-27.76</v>
@@ -10122,15 +10122,15 @@
         <v>2.5640000000000001</v>
       </c>
       <c r="H270" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B271" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C271" s="2">
         <v>-26.13</v>
@@ -10148,15 +10148,15 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="H271" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B272" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C272" s="2">
         <v>-29.99</v>
@@ -10174,15 +10174,15 @@
         <v>2.1579999999999999</v>
       </c>
       <c r="H272" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B273" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C273" s="2">
         <v>-27.58</v>
@@ -10200,15 +10200,15 @@
         <v>3.0310000000000001</v>
       </c>
       <c r="H273" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B274" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C274" s="2">
         <v>-30.65</v>
@@ -10226,15 +10226,15 @@
         <v>3.347</v>
       </c>
       <c r="H274" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B275" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C275" s="2">
         <v>-33.31</v>
@@ -10252,15 +10252,15 @@
         <v>2.004</v>
       </c>
       <c r="H275" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B276" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C276" s="2">
         <v>-32.909999999999997</v>
@@ -10278,15 +10278,15 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="H276" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B277" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C277" s="2">
         <v>-33.909999999999997</v>
@@ -10304,15 +10304,15 @@
         <v>2.3879999999999999</v>
       </c>
       <c r="H277" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B278" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C278" s="2">
         <v>-31.83</v>
@@ -10330,15 +10330,15 @@
         <v>2.37</v>
       </c>
       <c r="H278" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B279" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C279" s="2">
         <v>-28.72</v>
@@ -10356,15 +10356,15 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H279" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B280" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C280" s="2">
         <v>-32.67</v>
@@ -10382,15 +10382,15 @@
         <v>2.887</v>
       </c>
       <c r="H280" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B281" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -10398,18 +10398,18 @@
       <c r="F281" s="2"/>
       <c r="G281" s="1"/>
       <c r="H281" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I281" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B282" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C282" s="2">
         <v>-29.64</v>
@@ -10427,15 +10427,15 @@
         <v>2.302</v>
       </c>
       <c r="H282" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B283" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C283" s="2">
         <v>-25.46</v>
@@ -10453,15 +10453,15 @@
         <v>1.704</v>
       </c>
       <c r="H283" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B284" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C284" s="2">
         <v>-28.19</v>
@@ -10479,15 +10479,15 @@
         <v>1.849</v>
       </c>
       <c r="H284" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B285" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C285" s="2">
         <v>-29.27</v>
@@ -10505,15 +10505,15 @@
         <v>1.522</v>
       </c>
       <c r="H285" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B286" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C286" s="2">
         <v>-33.369999999999997</v>
@@ -10531,15 +10531,15 @@
         <v>2.569</v>
       </c>
       <c r="H286" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B287" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C287" s="2">
         <v>-30.67</v>
@@ -10557,15 +10557,15 @@
         <v>2.3130000000000002</v>
       </c>
       <c r="H287" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B288" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C288" s="2">
         <v>-33.630000000000003</v>
@@ -10583,15 +10583,15 @@
         <v>2.83</v>
       </c>
       <c r="H288" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B289" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C289" s="2">
         <v>-31.57</v>
@@ -10609,15 +10609,15 @@
         <v>2.7570000000000001</v>
       </c>
       <c r="H289" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B290" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C290" s="2">
         <v>-29.37</v>
@@ -10635,15 +10635,15 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="H290" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B291" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C291" s="2">
         <v>-25.12</v>
@@ -10661,15 +10661,15 @@
         <v>1.115</v>
       </c>
       <c r="H291" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B292" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C292" s="2">
         <v>-27.89</v>
@@ -10687,15 +10687,15 @@
         <v>1.625</v>
       </c>
       <c r="H292" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B293" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C293" s="2">
         <v>-30.99</v>
@@ -10713,15 +10713,15 @@
         <v>2.1110000000000002</v>
       </c>
       <c r="H293" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B294" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C294" s="2">
         <v>-24</v>
@@ -10739,15 +10739,15 @@
         <v>2.46</v>
       </c>
       <c r="H294" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B295" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C295" s="2">
         <v>-29.35</v>
@@ -10765,15 +10765,15 @@
         <v>3.1030000000000002</v>
       </c>
       <c r="H295" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B296" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C296" s="2">
         <v>-27.71</v>
@@ -10791,15 +10791,15 @@
         <v>3.5329999999999999</v>
       </c>
       <c r="H296" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B297" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C297" s="2">
         <v>-24.81</v>
@@ -10817,15 +10817,15 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H297" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B298" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C298" s="2">
         <v>-39.229999999999997</v>
@@ -10843,15 +10843,15 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="H298" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B299" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C299" s="2">
         <v>-33.42</v>
@@ -10869,15 +10869,15 @@
         <v>2.0209999999999999</v>
       </c>
       <c r="H299" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B300" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C300" s="2">
         <v>-36.020000000000003</v>
@@ -10895,15 +10895,15 @@
         <v>1.494</v>
       </c>
       <c r="H300" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B301" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C301" s="2">
         <v>-36.94</v>
@@ -10921,15 +10921,15 @@
         <v>1.363</v>
       </c>
       <c r="H301" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B302" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C302" s="2">
         <v>-31.25</v>
@@ -10947,15 +10947,15 @@
         <v>2.99</v>
       </c>
       <c r="H302" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B303" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C303" s="2">
         <v>-31.21</v>
@@ -10973,15 +10973,15 @@
         <v>2.222</v>
       </c>
       <c r="H303" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B304" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C304" s="2">
         <v>-31.79</v>
@@ -10999,7 +10999,7 @@
         <v>2.0470000000000002</v>
       </c>
       <c r="H304" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -11009,18 +11009,18 @@
       <c r="F305" s="2"/>
       <c r="G305" s="1"/>
       <c r="H305" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I305" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B306" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C306" s="2">
         <v>-29.02</v>
@@ -11038,15 +11038,15 @@
         <v>1.9359999999999999</v>
       </c>
       <c r="H306" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B307" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C307" s="2">
         <v>-27.37</v>
@@ -11064,15 +11064,15 @@
         <v>2.0750000000000002</v>
       </c>
       <c r="H307" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B308" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C308" s="2">
         <v>-27.23</v>
@@ -11090,15 +11090,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="H308" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B309" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C309" s="2">
         <v>-27.74</v>
@@ -11116,7 +11116,7 @@
         <v>3.98</v>
       </c>
       <c r="H309" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -11147,18 +11147,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" t="s">
         <v>619</v>
-      </c>
-      <c r="C1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B2" s="3">
         <v>45790.503136574102</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B3" s="3">
         <v>45790.570914351898</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B4" s="3">
         <v>45790.638703703698</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B5" s="3">
         <v>45790.697789351798</v>
@@ -11214,7 +11214,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B6" s="3">
         <v>45790.765555555598</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B7" s="3">
         <v>45790.833333333299</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B8" s="3">
         <v>45790.901087963</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B9" s="3">
         <v>45790.968854166698</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B10" s="3">
         <v>45791.509236111102</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B11" s="3">
         <v>45791.577025462997</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B12" s="3">
         <v>45791.644803240699</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B13" s="3">
         <v>45791.719131944403</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B14" s="3">
         <v>45791.786898148202</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B15" s="3">
         <v>45791.854664351798</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B16" s="3">
         <v>45791.922442129602</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B17" s="3">
         <v>45791.990219907399</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B18" s="3">
         <v>45796.5133796296</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B19" s="3">
         <v>45796.581145833297</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B20" s="3">
         <v>45796.648923611101</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B21" s="3">
         <v>45796.707384259302</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B22" s="3">
         <v>45796.775150463</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B23" s="3">
         <v>45796.842916666697</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B24" s="3">
         <v>45796.910694444399</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B25" s="3">
         <v>45796.978472222203</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B26" s="3">
         <v>45797.521701388898</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B27" s="3">
         <v>45797.589479166701</v>
@@ -11522,7 +11522,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B28" s="3">
         <v>45797.657256944403</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B29" s="3">
         <v>45797.717037037</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B30" s="3">
         <v>45797.784814814797</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B31" s="3">
         <v>45797.852592592601</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B32" s="3">
         <v>45797.920370370397</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B33" s="3">
         <v>45797.988148148201</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B34" s="3">
         <v>45798.467071759304</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B35" s="3">
         <v>45798.534837963001</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B36" s="3">
         <v>45798.602615740703</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B37" s="3">
         <v>45798.654467592598</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B38" s="3">
         <v>45798.722256944398</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B39" s="3">
         <v>45798.925578703696</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C2:C39)</f>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C42" s="2">
         <f>STDEV(C2:C39)</f>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C43">
         <v>-28.48</v>

--- a/data/raw/raw_corinth_leaf_2024_copy_afitch_112625.XLSX
+++ b/data/raw/raw_corinth_leaf_2024_copy_afitch_112625.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia 1 2/Documents/Dartmouth/Corinth_Project/Corinth_HPlab/Corinth_isotope-analysis-/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3678FB85-FCDD-514C-8557-3F95A441BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15EC1FD-98C3-BD4B-9F38-A5159D718F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37060" yWindow="500" windowWidth="17100" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="500" windowWidth="12160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unknowns" sheetId="1" r:id="rId1"/>
@@ -972,15 +972,9 @@
     <t>G-86392</t>
   </si>
   <si>
-    <t>5 14_7 C BELE 1</t>
-  </si>
-  <si>
     <t>G-86393</t>
   </si>
   <si>
-    <t>5 14_7 C BELE 2</t>
-  </si>
-  <si>
     <t>G-86394</t>
   </si>
   <si>
@@ -996,9 +990,6 @@
     <t>G-86396</t>
   </si>
   <si>
-    <t>19 14_7 C BELE</t>
-  </si>
-  <si>
     <t>G-86397</t>
   </si>
   <si>
@@ -2854,6 +2845,15 @@
   </si>
   <si>
     <t>13 3_5 C QURU</t>
+  </si>
+  <si>
+    <t>18 14_7 C BELE</t>
+  </si>
+  <si>
+    <t>15 14_7 E BELE 1</t>
+  </si>
+  <si>
+    <t>15 14_7 E BELE 2</t>
   </si>
 </sst>
 </file>
@@ -3206,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3226,25 +3226,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
         <v>594</v>
-      </c>
-      <c r="D1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F1" t="s">
-        <v>597</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3252,7 +3252,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C2" s="2">
         <v>-29.29</v>
@@ -3270,7 +3270,7 @@
         <v>2.8879999999999999</v>
       </c>
       <c r="H2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3296,15 +3296,15 @@
         <v>1.6419999999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C4" s="2">
         <v>-31.9</v>
@@ -3322,15 +3322,15 @@
         <v>2.6520000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C5" s="2">
         <v>-31.65</v>
@@ -3348,7 +3348,7 @@
         <v>2.4289999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3374,15 +3374,15 @@
         <v>3.081</v>
       </c>
       <c r="H6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C7" s="2">
         <v>-30.22</v>
@@ -3400,7 +3400,7 @@
         <v>2.528</v>
       </c>
       <c r="H7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3426,7 +3426,7 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3452,7 +3452,7 @@
         <v>2.4670000000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>2.198</v>
       </c>
       <c r="H10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
         <v>2.9620000000000002</v>
       </c>
       <c r="H11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>2.8919999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3556,15 +3556,15 @@
         <v>2.7919999999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C14" s="2">
         <v>-30.67</v>
@@ -3582,7 +3582,7 @@
         <v>2.3130000000000002</v>
       </c>
       <c r="H14" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>2.74</v>
       </c>
       <c r="H15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3634,15 +3634,15 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C17" s="2">
         <v>-30.7</v>
@@ -3660,7 +3660,7 @@
         <v>2.347</v>
       </c>
       <c r="H17" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>2.419</v>
       </c>
       <c r="H19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
         <v>3.0939999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="H21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3790,15 +3790,15 @@
         <v>2.8849999999999998</v>
       </c>
       <c r="H22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B23" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C23" s="2">
         <v>-28.72</v>
@@ -3816,7 +3816,7 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H23" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3842,15 +3842,15 @@
         <v>1.716</v>
       </c>
       <c r="H24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C25" s="2">
         <v>-30.84</v>
@@ -3868,15 +3868,15 @@
         <v>2.5830000000000002</v>
       </c>
       <c r="H25" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C26" s="2">
         <v>-29.99</v>
@@ -3894,15 +3894,15 @@
         <v>2.1579999999999999</v>
       </c>
       <c r="H26" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C27" s="2">
         <v>-29.66</v>
@@ -3920,7 +3920,7 @@
         <v>2.7749999999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C28" s="2">
         <v>-29.37</v>
@@ -3946,15 +3946,15 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="H28" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B29" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C29" s="2">
         <v>-30.61</v>
@@ -3972,7 +3972,7 @@
         <v>2.3860000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3998,7 +3998,7 @@
         <v>2.81</v>
       </c>
       <c r="H30" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4024,15 +4024,15 @@
         <v>2.44</v>
       </c>
       <c r="H31" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C32" s="2">
         <v>-29.94</v>
@@ -4050,15 +4050,15 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H32" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C33" s="2">
         <v>-31.51</v>
@@ -4076,7 +4076,7 @@
         <v>2.5710000000000002</v>
       </c>
       <c r="H33" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>2.754</v>
       </c>
       <c r="H34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4128,15 +4128,15 @@
         <v>2.0539999999999998</v>
       </c>
       <c r="H35" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C36" s="2">
         <v>-31.98</v>
@@ -4154,7 +4154,7 @@
         <v>2.3959999999999999</v>
       </c>
       <c r="H36" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <v>2.3940000000000001</v>
       </c>
       <c r="H37" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>1.881</v>
       </c>
       <c r="H38" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -4232,15 +4232,15 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="H39" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2">
         <v>-31.33</v>
@@ -4258,7 +4258,7 @@
         <v>2.3940000000000001</v>
       </c>
       <c r="H40" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4266,7 +4266,7 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C41" s="2">
         <v>-32.270000000000003</v>
@@ -4284,15 +4284,15 @@
         <v>1.736</v>
       </c>
       <c r="H41" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2">
         <v>-32.31</v>
@@ -4310,15 +4310,15 @@
         <v>2.7559999999999998</v>
       </c>
       <c r="H42" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B43" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C43" s="2">
         <v>-31.83</v>
@@ -4336,15 +4336,15 @@
         <v>2.37</v>
       </c>
       <c r="H43" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2">
         <v>-31.46</v>
@@ -4362,7 +4362,7 @@
         <v>2.9750000000000001</v>
       </c>
       <c r="H44" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -4388,7 +4388,7 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4414,15 +4414,15 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="H46" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2">
         <v>-32.56</v>
@@ -4440,7 +4440,7 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4466,15 +4466,15 @@
         <v>1.905</v>
       </c>
       <c r="H48" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2">
         <v>-30.82</v>
@@ -4492,15 +4492,15 @@
         <v>2.5649999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2">
         <v>-31.22</v>
@@ -4518,15 +4518,15 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="H50" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2">
         <v>-30.99</v>
@@ -4544,7 +4544,7 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="H51" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4570,15 +4570,15 @@
         <v>3.1240000000000001</v>
       </c>
       <c r="H52" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2">
         <v>-31.94</v>
@@ -4596,7 +4596,7 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="H53" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4622,15 +4622,15 @@
         <v>2.8570000000000002</v>
       </c>
       <c r="H54" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B55" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C55" s="2">
         <v>-39.229999999999997</v>
@@ -4648,7 +4648,7 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="H55" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4674,15 +4674,15 @@
         <v>1.9179999999999999</v>
       </c>
       <c r="H56" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2">
         <v>-32.659999999999997</v>
@@ -4700,7 +4700,7 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="H57" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4726,15 +4726,15 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="H58" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C59" s="2">
         <v>-31.95</v>
@@ -4752,7 +4752,7 @@
         <v>2.1480000000000001</v>
       </c>
       <c r="H59" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C60" s="2">
         <v>-28.19</v>
@@ -4778,15 +4778,15 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="H60" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2">
         <v>-31.48</v>
@@ -4804,7 +4804,7 @@
         <v>2.6469999999999998</v>
       </c>
       <c r="H61" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
         <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C62" s="2">
         <v>-32.75</v>
@@ -4830,15 +4830,15 @@
         <v>2.5539999999999998</v>
       </c>
       <c r="H62" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B63" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C63" s="2">
         <v>-31.36</v>
@@ -4856,7 +4856,7 @@
         <v>3.2360000000000002</v>
       </c>
       <c r="H63" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4882,15 +4882,15 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="H64" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2">
         <v>-29.35</v>
@@ -4908,15 +4908,15 @@
         <v>2.5920000000000001</v>
       </c>
       <c r="H65" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C66" s="2">
         <v>-32.14</v>
@@ -4934,15 +4934,15 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="H66" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2">
         <v>-34.54</v>
@@ -4960,7 +4960,7 @@
         <v>2.9249999999999998</v>
       </c>
       <c r="H67" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C68" s="2">
         <v>-29.35</v>
@@ -4986,7 +4986,7 @@
         <v>2.6459999999999999</v>
       </c>
       <c r="H68" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
         <v>2.7770000000000001</v>
       </c>
       <c r="H69" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -5038,15 +5038,15 @@
         <v>1.1080000000000001</v>
       </c>
       <c r="H70" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C71" s="2">
         <v>-32.08</v>
@@ -5064,7 +5064,7 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="H71" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -5090,7 +5090,7 @@
         <v>1.3380000000000001</v>
       </c>
       <c r="H72" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>1.712</v>
       </c>
       <c r="H73" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -5142,7 +5142,7 @@
         <v>2.8029999999999999</v>
       </c>
       <c r="H74" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -5168,15 +5168,15 @@
         <v>2.391</v>
       </c>
       <c r="H75" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C76" s="2">
         <v>-28.51</v>
@@ -5194,15 +5194,15 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="H76" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B77" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2">
         <v>-29.96</v>
@@ -5220,7 +5220,7 @@
         <v>2.5019999999999998</v>
       </c>
       <c r="H77" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -5246,15 +5246,15 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="H78" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C79" s="2">
         <v>-30.46</v>
@@ -5272,15 +5272,15 @@
         <v>2.476</v>
       </c>
       <c r="H79" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="2">
         <v>-32.450000000000003</v>
@@ -5298,7 +5298,7 @@
         <v>2.3620000000000001</v>
       </c>
       <c r="H80" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -5324,15 +5324,15 @@
         <v>2.0880000000000001</v>
       </c>
       <c r="H81" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C82" s="2">
         <v>-30.94</v>
@@ -5350,7 +5350,7 @@
         <v>2.524</v>
       </c>
       <c r="H82" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C83" s="2">
         <v>-29.34</v>
@@ -5376,7 +5376,7 @@
         <v>1.8740000000000001</v>
       </c>
       <c r="H83" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -5402,7 +5402,7 @@
         <v>3.077</v>
       </c>
       <c r="H84" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -5428,15 +5428,15 @@
         <v>3.0409999999999999</v>
       </c>
       <c r="H85" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C86" s="2">
         <v>-31.19</v>
@@ -5454,15 +5454,15 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="H86" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C87" s="2">
         <v>-29.26</v>
@@ -5480,7 +5480,7 @@
         <v>2.9409999999999998</v>
       </c>
       <c r="H87" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5506,7 +5506,7 @@
         <v>2.8239999999999998</v>
       </c>
       <c r="H88" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>2.077</v>
       </c>
       <c r="H89" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>2.774</v>
       </c>
       <c r="H90" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5584,7 +5584,7 @@
         <v>2.468</v>
       </c>
       <c r="H91" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5610,15 +5610,15 @@
         <v>3.105</v>
       </c>
       <c r="H92" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B93" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C93" s="2">
         <v>-30.94</v>
@@ -5636,7 +5636,7 @@
         <v>2.5230000000000001</v>
       </c>
       <c r="H93" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5662,15 +5662,15 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="H94" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C95" s="2">
         <v>-32.01</v>
@@ -5688,7 +5688,7 @@
         <v>2.681</v>
       </c>
       <c r="H95" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5714,15 +5714,15 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="H96" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C97" s="2">
         <v>-35.549999999999997</v>
@@ -5740,15 +5740,15 @@
         <v>2.4169999999999998</v>
       </c>
       <c r="H97" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C98" s="2">
         <v>-33.369999999999997</v>
@@ -5766,7 +5766,7 @@
         <v>2.569</v>
       </c>
       <c r="H98" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5792,15 +5792,15 @@
         <v>3.3879999999999999</v>
       </c>
       <c r="H99" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B100" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C100" s="2">
         <v>-33.909999999999997</v>
@@ -5818,15 +5818,15 @@
         <v>2.3879999999999999</v>
       </c>
       <c r="H100" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C101" s="2">
         <v>-31.21</v>
@@ -5844,15 +5844,15 @@
         <v>2.4689999999999999</v>
       </c>
       <c r="H101" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C102" s="2">
         <v>-31.81</v>
@@ -5870,15 +5870,15 @@
         <v>2.5350000000000001</v>
       </c>
       <c r="H102" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C103" s="2">
         <v>-30.67</v>
@@ -5896,7 +5896,7 @@
         <v>2.681</v>
       </c>
       <c r="H103" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5922,7 +5922,7 @@
         <v>2.234</v>
       </c>
       <c r="H104" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5930,7 +5930,7 @@
         <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C105" s="2">
         <v>-33.340000000000003</v>
@@ -5948,7 +5948,7 @@
         <v>2.7080000000000002</v>
       </c>
       <c r="H105" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
         <v>2.5739999999999998</v>
       </c>
       <c r="H106" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
         <v>1.5640000000000001</v>
       </c>
       <c r="H107" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -6026,7 +6026,7 @@
         <v>2.73</v>
       </c>
       <c r="H108" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
         <v>3.5609999999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -6078,15 +6078,15 @@
         <v>3.2370000000000001</v>
       </c>
       <c r="H110" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>936</v>
       </c>
       <c r="C111" s="2">
         <v>-31.8</v>
@@ -6104,7 +6104,7 @@
         <v>2.8650000000000002</v>
       </c>
       <c r="H111" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -6130,15 +6130,15 @@
         <v>3.0630000000000002</v>
       </c>
       <c r="H112" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B113" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C113" s="2">
         <v>-32.22</v>
@@ -6156,15 +6156,15 @@
         <v>2.6419999999999999</v>
       </c>
       <c r="H113" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B114" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C114" s="2">
         <v>-32.369999999999997</v>
@@ -6182,7 +6182,7 @@
         <v>2.48</v>
       </c>
       <c r="H114" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -6208,15 +6208,15 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="H115" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C116" s="2">
         <v>-29.38</v>
@@ -6234,15 +6234,15 @@
         <v>2.6269999999999998</v>
       </c>
       <c r="H116" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B117" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C117" s="2">
         <v>-30.86</v>
@@ -6260,15 +6260,15 @@
         <v>2.7010000000000001</v>
       </c>
       <c r="H117" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B118" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C118" s="2">
         <v>-33.08</v>
@@ -6286,7 +6286,7 @@
         <v>2.23</v>
       </c>
       <c r="H118" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -6312,15 +6312,15 @@
         <v>1.619</v>
       </c>
       <c r="H119" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C120" s="2">
         <v>-30.41</v>
@@ -6338,7 +6338,7 @@
         <v>2.6080000000000001</v>
       </c>
       <c r="H120" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -6364,7 +6364,7 @@
         <v>2.6989999999999998</v>
       </c>
       <c r="H121" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -6390,15 +6390,15 @@
         <v>3.2149999999999999</v>
       </c>
       <c r="H122" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C123" s="2">
         <v>-30.92</v>
@@ -6416,15 +6416,15 @@
         <v>2.323</v>
       </c>
       <c r="H123" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C124" s="2">
         <v>-31.28</v>
@@ -6442,15 +6442,15 @@
         <v>2.5339999999999998</v>
       </c>
       <c r="H124" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C125" s="2">
         <v>-31.18</v>
@@ -6468,15 +6468,15 @@
         <v>2.718</v>
       </c>
       <c r="H125" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C126" s="2">
         <v>-32</v>
@@ -6494,7 +6494,7 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="H126" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -6520,15 +6520,15 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="H127" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B128" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C128" s="2">
         <v>-30.56</v>
@@ -6546,7 +6546,7 @@
         <v>2.4409999999999998</v>
       </c>
       <c r="H128" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -6554,7 +6554,7 @@
         <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C129" s="2">
         <v>-32.94</v>
@@ -6572,7 +6572,7 @@
         <v>2.589</v>
       </c>
       <c r="H129" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>3.2440000000000002</v>
       </c>
       <c r="H130" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -6624,15 +6624,15 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="H131" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C132" s="2">
         <v>-30.56</v>
@@ -6650,15 +6650,15 @@
         <v>2.6179999999999999</v>
       </c>
       <c r="H132" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B133" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C133" s="2">
         <v>-33.630000000000003</v>
@@ -6676,15 +6676,15 @@
         <v>2.83</v>
       </c>
       <c r="H133" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B134" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C134" s="2">
         <v>-32.9</v>
@@ -6702,7 +6702,7 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="H134" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -6728,15 +6728,15 @@
         <v>2.8690000000000002</v>
       </c>
       <c r="H135" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C136" s="2">
         <v>-31.4</v>
@@ -6754,7 +6754,7 @@
         <v>2.7629999999999999</v>
       </c>
       <c r="H136" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -6780,15 +6780,15 @@
         <v>2.444</v>
       </c>
       <c r="H137" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C138" s="2">
         <v>-32.67</v>
@@ -6806,15 +6806,15 @@
         <v>2.887</v>
       </c>
       <c r="H138" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B139" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C139" s="2">
         <v>-31.11</v>
@@ -6832,15 +6832,15 @@
         <v>2.3149999999999999</v>
       </c>
       <c r="H139" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B140" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C140" s="2">
         <v>-32.17</v>
@@ -6858,7 +6858,7 @@
         <v>2.6480000000000001</v>
       </c>
       <c r="H140" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6884,15 +6884,15 @@
         <v>2.669</v>
       </c>
       <c r="H141" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B142" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C142" s="2">
         <v>-29.74</v>
@@ -6910,7 +6910,7 @@
         <v>2.5960000000000001</v>
       </c>
       <c r="H142" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6936,7 +6936,7 @@
         <v>2.4020000000000001</v>
       </c>
       <c r="H143" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6962,15 +6962,15 @@
         <v>3.1760000000000002</v>
       </c>
       <c r="H144" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C145" s="2">
         <v>-32.119999999999997</v>
@@ -6988,15 +6988,15 @@
         <v>2.2360000000000002</v>
       </c>
       <c r="H145" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C146" s="2">
         <v>-31.82</v>
@@ -7014,15 +7014,15 @@
         <v>2.52</v>
       </c>
       <c r="H146" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C147" s="2">
         <v>-31.86</v>
@@ -7040,15 +7040,15 @@
         <v>2.448</v>
       </c>
       <c r="H147" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C148" s="2">
         <v>-33.54</v>
@@ -7066,15 +7066,15 @@
         <v>2.1659999999999999</v>
       </c>
       <c r="H148" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B149" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C149" s="2">
         <v>-30.65</v>
@@ -7092,7 +7092,7 @@
         <v>3.347</v>
       </c>
       <c r="H149" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>1.859</v>
       </c>
       <c r="H150" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
         <v>1.8069999999999999</v>
       </c>
       <c r="H151" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -7170,7 +7170,7 @@
         <v>2.5840000000000001</v>
       </c>
       <c r="H152" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -7178,7 +7178,7 @@
         <v>100</v>
       </c>
       <c r="B153" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C153" s="2">
         <v>-29.46</v>
@@ -7196,15 +7196,15 @@
         <v>1.66</v>
       </c>
       <c r="H153" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B154" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C154" s="2">
         <v>-30.11</v>
@@ -7222,15 +7222,15 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="H154" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B155" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C155" s="2">
         <v>-30.87</v>
@@ -7248,7 +7248,7 @@
         <v>2.3580000000000001</v>
       </c>
       <c r="H155" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -7274,15 +7274,15 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="H156" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B157" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C157" s="2">
         <v>-30.35</v>
@@ -7300,7 +7300,7 @@
         <v>2.6859999999999999</v>
       </c>
       <c r="H157" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>2.4329999999999998</v>
       </c>
       <c r="H158" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -7352,7 +7352,7 @@
         <v>2.819</v>
       </c>
       <c r="H159" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -7378,7 +7378,7 @@
         <v>2.9340000000000002</v>
       </c>
       <c r="H160" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -7404,15 +7404,15 @@
         <v>2.141</v>
       </c>
       <c r="H161" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C162" s="2">
         <v>-32.26</v>
@@ -7430,7 +7430,7 @@
         <v>2.7240000000000002</v>
       </c>
       <c r="H162" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -7438,7 +7438,7 @@
         <v>310</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>937</v>
       </c>
       <c r="C163" s="2">
         <v>-31.24</v>
@@ -7456,15 +7456,15 @@
         <v>2.4049999999999998</v>
       </c>
       <c r="H163" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>938</v>
       </c>
       <c r="C164" s="2">
         <v>-30.67</v>
@@ -7482,15 +7482,15 @@
         <v>2.9209999999999998</v>
       </c>
       <c r="H164" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B165" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C165" s="2">
         <v>-31.25</v>
@@ -7508,15 +7508,15 @@
         <v>2.99</v>
       </c>
       <c r="H165" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B166" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C166" s="2">
         <v>-31.21</v>
@@ -7534,7 +7534,7 @@
         <v>2.222</v>
       </c>
       <c r="H166" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -7542,7 +7542,7 @@
         <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C167" s="2">
         <v>-28.41</v>
@@ -7560,15 +7560,15 @@
         <v>2.8980000000000001</v>
       </c>
       <c r="H167" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C168" s="2">
         <v>-31.45</v>
@@ -7586,7 +7586,7 @@
         <v>2.3679999999999999</v>
       </c>
       <c r="H168" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
         <v>2.5270000000000001</v>
       </c>
       <c r="H169" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>101</v>
       </c>
       <c r="B170" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C170" s="2">
         <v>-29.05</v>
@@ -7638,15 +7638,15 @@
         <v>2.8109999999999999</v>
       </c>
       <c r="H170" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B171" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C171" s="2">
         <v>-36.020000000000003</v>
@@ -7664,7 +7664,7 @@
         <v>1.494</v>
       </c>
       <c r="H171" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -7690,7 +7690,7 @@
         <v>2.9510000000000001</v>
       </c>
       <c r="H172" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -7716,7 +7716,7 @@
         <v>2.8180000000000001</v>
       </c>
       <c r="H173" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -7742,15 +7742,15 @@
         <v>2.3809999999999998</v>
       </c>
       <c r="H174" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B175" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C175" s="2">
         <v>-27.58</v>
@@ -7768,7 +7768,7 @@
         <v>3.0310000000000001</v>
       </c>
       <c r="H175" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -7794,7 +7794,7 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="H176" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>2.4409999999999998</v>
       </c>
       <c r="H177" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -7846,15 +7846,15 @@
         <v>2.8029999999999999</v>
       </c>
       <c r="H178" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B179" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C179" s="2">
         <v>-33.31</v>
@@ -7872,15 +7872,15 @@
         <v>2.004</v>
       </c>
       <c r="H179" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B180" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C180" s="2">
         <v>-32.909999999999997</v>
@@ -7898,7 +7898,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="H180" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -7924,15 +7924,15 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="H181" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C182" s="2">
         <v>-33.01</v>
@@ -7950,7 +7950,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="H182" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -7976,7 +7976,7 @@
         <v>2.3889999999999998</v>
       </c>
       <c r="H183" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -8002,7 +8002,7 @@
         <v>2.661</v>
       </c>
       <c r="H184" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>2.177</v>
       </c>
       <c r="H185" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -8054,7 +8054,7 @@
         <v>2.367</v>
       </c>
       <c r="H186" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -8080,15 +8080,15 @@
         <v>2.2069999999999999</v>
       </c>
       <c r="H187" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B188" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C188" s="2">
         <v>-31.7</v>
@@ -8106,15 +8106,15 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="H188" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B189" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C189" s="2">
         <v>-32.520000000000003</v>
@@ -8132,15 +8132,15 @@
         <v>2.6440000000000001</v>
       </c>
       <c r="H189" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B190" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C190" s="2">
         <v>-32.03</v>
@@ -8158,7 +8158,7 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="H190" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -8184,15 +8184,15 @@
         <v>2.702</v>
       </c>
       <c r="H191" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B192" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C192" s="2">
         <v>-33</v>
@@ -8210,7 +8210,7 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="H192" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -8236,7 +8236,7 @@
         <v>2.206</v>
       </c>
       <c r="H193" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -8262,7 +8262,7 @@
         <v>2.653</v>
       </c>
       <c r="H194" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -8288,15 +8288,15 @@
         <v>2.9329999999999998</v>
       </c>
       <c r="H195" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B196" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C196" s="2">
         <v>-31.79</v>
@@ -8314,15 +8314,15 @@
         <v>2.0470000000000002</v>
       </c>
       <c r="H196" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B197" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C197" s="2">
         <v>-28.96</v>
@@ -8340,15 +8340,15 @@
         <v>2.9169999999999998</v>
       </c>
       <c r="H197" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B198" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C198" s="2">
         <v>-33.74</v>
@@ -8366,15 +8366,15 @@
         <v>2.3340000000000001</v>
       </c>
       <c r="H198" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C199" s="2">
         <v>-30.27</v>
@@ -8392,15 +8392,15 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="H199" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B200" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C200" s="2">
         <v>-30.64</v>
@@ -8418,7 +8418,7 @@
         <v>2.7280000000000002</v>
       </c>
       <c r="H200" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -8426,7 +8426,7 @@
         <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C201" s="2">
         <v>-29.54</v>
@@ -8444,7 +8444,7 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="H201" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -8470,15 +8470,15 @@
         <v>2.9950000000000001</v>
       </c>
       <c r="H202" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B203" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C203" s="2">
         <v>-31.57</v>
@@ -8496,15 +8496,15 @@
         <v>2.7570000000000001</v>
       </c>
       <c r="H203" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B204" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C204" s="2">
         <v>-31.78</v>
@@ -8522,7 +8522,7 @@
         <v>2.3610000000000002</v>
       </c>
       <c r="H204" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -8548,15 +8548,15 @@
         <v>2.738</v>
       </c>
       <c r="H205" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B206" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C206" s="2">
         <v>-33.42</v>
@@ -8574,15 +8574,15 @@
         <v>2.0209999999999999</v>
       </c>
       <c r="H206" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C207" s="2">
         <v>-31.4</v>
@@ -8600,7 +8600,7 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="H207" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -8626,7 +8626,7 @@
         <v>2.157</v>
       </c>
       <c r="H208" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="H209" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8678,7 +8678,7 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="H210" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8704,15 +8704,15 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="H211" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B212" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C212" s="2">
         <v>-36.94</v>
@@ -8730,7 +8730,7 @@
         <v>1.363</v>
       </c>
       <c r="H212" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -8746,10 +8746,10 @@
       <c r="F213" s="2"/>
       <c r="G213" s="1"/>
       <c r="H213" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I213" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -8765,18 +8765,18 @@
       <c r="F214" s="2"/>
       <c r="G214" s="1"/>
       <c r="H214" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I214" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B215" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -8784,18 +8784,18 @@
       <c r="F215" s="2"/>
       <c r="G215" s="1"/>
       <c r="H215" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I215" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B216" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -8803,18 +8803,18 @@
       <c r="F216" s="2"/>
       <c r="G216" s="1"/>
       <c r="H216" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I216" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B217" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -8822,18 +8822,18 @@
       <c r="F217" s="2"/>
       <c r="G217" s="1"/>
       <c r="H217" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I217" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -8841,18 +8841,18 @@
       <c r="F218" s="2"/>
       <c r="G218" s="1"/>
       <c r="H218" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I218" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B219" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -8860,18 +8860,18 @@
       <c r="F219" s="2"/>
       <c r="G219" s="1"/>
       <c r="H219" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I219" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B220" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -8879,18 +8879,18 @@
       <c r="F220" s="2"/>
       <c r="G220" s="1"/>
       <c r="H220" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I220" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B221" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -8898,18 +8898,18 @@
       <c r="F221" s="2"/>
       <c r="G221" s="1"/>
       <c r="H221" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I221" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B222" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -8917,10 +8917,10 @@
       <c r="F222" s="2"/>
       <c r="G222" s="1"/>
       <c r="H222" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I222" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -8936,10 +8936,10 @@
       <c r="F223" s="2"/>
       <c r="G223" s="1"/>
       <c r="H223" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I223" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -8955,10 +8955,10 @@
       <c r="F224" s="2"/>
       <c r="G224" s="1"/>
       <c r="H224" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I224" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -8974,10 +8974,10 @@
       <c r="F225" s="2"/>
       <c r="G225" s="1"/>
       <c r="H225" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I225" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -8993,10 +8993,10 @@
       <c r="F226" s="2"/>
       <c r="G226" s="1"/>
       <c r="H226" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I226" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -9012,10 +9012,10 @@
       <c r="F227" s="2"/>
       <c r="G227" s="1"/>
       <c r="H227" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I227" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -9031,10 +9031,10 @@
       <c r="F228" s="2"/>
       <c r="G228" s="1"/>
       <c r="H228" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I228" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -9050,10 +9050,10 @@
       <c r="F229" s="2"/>
       <c r="G229" s="1"/>
       <c r="H229" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I229" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -9069,10 +9069,10 @@
       <c r="F230" s="2"/>
       <c r="G230" s="1"/>
       <c r="H230" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I230" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -9098,7 +9098,7 @@
         <v>2.0830000000000002</v>
       </c>
       <c r="H231" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
         <v>1.976</v>
       </c>
       <c r="H232" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -9150,7 +9150,7 @@
         <v>2.048</v>
       </c>
       <c r="H233" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="H234" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -9202,7 +9202,7 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="H235" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -9228,7 +9228,7 @@
         <v>1.9950000000000001</v>
       </c>
       <c r="H236" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -9254,7 +9254,7 @@
         <v>2.5880000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -9280,7 +9280,7 @@
         <v>2.5409999999999999</v>
       </c>
       <c r="H238" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -9306,7 +9306,7 @@
         <v>2.6150000000000002</v>
       </c>
       <c r="H239" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -9332,15 +9332,15 @@
         <v>2.5089999999999999</v>
       </c>
       <c r="H240" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C241" s="2">
         <v>-27.74</v>
@@ -9358,15 +9358,15 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="H241" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B242" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C242" s="2">
         <v>-27.71</v>
@@ -9384,15 +9384,15 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B243" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C243" s="2">
         <v>-27.77</v>
@@ -9410,15 +9410,15 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H243" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B244" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C244" s="2">
         <v>-27.76</v>
@@ -9436,15 +9436,15 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="H244" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B245" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C245" s="2">
         <v>-27.78</v>
@@ -9462,15 +9462,15 @@
         <v>2.4729999999999999</v>
       </c>
       <c r="H245" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C246" s="2">
         <v>-27.81</v>
@@ -9488,15 +9488,15 @@
         <v>2.4329999999999998</v>
       </c>
       <c r="H246" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B247" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C247" s="2">
         <v>-27.76</v>
@@ -9514,15 +9514,15 @@
         <v>2.5640000000000001</v>
       </c>
       <c r="H247" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B248" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C248" s="2">
         <v>-29.64</v>
@@ -9540,15 +9540,15 @@
         <v>2.302</v>
       </c>
       <c r="H248" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B249" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C249" s="2">
         <v>-29.02</v>
@@ -9566,7 +9566,7 @@
         <v>1.9359999999999999</v>
       </c>
       <c r="H249" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -9592,7 +9592,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="H250" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -9618,7 +9618,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="H251" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -9644,15 +9644,15 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="H252" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B253" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C253" s="2">
         <v>-25.93</v>
@@ -9670,7 +9670,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="H253" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -9696,7 +9696,7 @@
         <v>1.07</v>
       </c>
       <c r="H254" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -9722,15 +9722,15 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H255" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B256" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C256" s="2">
         <v>-25.88</v>
@@ -9748,7 +9748,7 @@
         <v>1.069</v>
       </c>
       <c r="H256" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -9774,7 +9774,7 @@
         <v>1.542</v>
       </c>
       <c r="H257" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -9800,15 +9800,15 @@
         <v>1.623</v>
       </c>
       <c r="H258" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B259" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C259" s="2">
         <v>-26.41</v>
@@ -9826,7 +9826,7 @@
         <v>1.401</v>
       </c>
       <c r="H259" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -9852,7 +9852,7 @@
         <v>2.0489999999999999</v>
       </c>
       <c r="H260" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -9878,7 +9878,7 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="H261" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -9904,7 +9904,7 @@
         <v>2.0640000000000001</v>
       </c>
       <c r="H262" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -9930,7 +9930,7 @@
         <v>1.9830000000000001</v>
       </c>
       <c r="H263" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -9956,7 +9956,7 @@
         <v>1.994</v>
       </c>
       <c r="H264" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>1.851</v>
       </c>
       <c r="H265" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="H266" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -10034,15 +10034,15 @@
         <v>2.1619999999999999</v>
       </c>
       <c r="H267" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B268" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C268" s="2">
         <v>-25.92</v>
@@ -10060,7 +10060,7 @@
         <v>2.1080000000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -10086,7 +10086,7 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="H269" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -10112,15 +10112,15 @@
         <v>2.42</v>
       </c>
       <c r="H270" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B271" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C271" s="2">
         <v>-25.83</v>
@@ -10138,7 +10138,7 @@
         <v>2.5329999999999999</v>
       </c>
       <c r="H271" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -10164,15 +10164,15 @@
         <v>3.056</v>
       </c>
       <c r="H272" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B273" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C273" s="2">
         <v>-25.78</v>
@@ -10190,7 +10190,7 @@
         <v>3.069</v>
       </c>
       <c r="H273" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -10216,7 +10216,7 @@
         <v>2.8580000000000001</v>
       </c>
       <c r="H274" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -10242,15 +10242,15 @@
         <v>3.3610000000000002</v>
       </c>
       <c r="H275" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B276" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C276" s="2">
         <v>-25.69</v>
@@ -10268,7 +10268,7 @@
         <v>3.6309999999999998</v>
       </c>
       <c r="H276" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -10294,7 +10294,7 @@
         <v>3.3879999999999999</v>
       </c>
       <c r="H277" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -10320,7 +10320,7 @@
         <v>4.1360000000000001</v>
       </c>
       <c r="H278" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -10346,15 +10346,15 @@
         <v>4.0419999999999998</v>
       </c>
       <c r="H279" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B280" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C280" s="2">
         <v>-25.66</v>
@@ -10372,7 +10372,7 @@
         <v>4.1150000000000002</v>
       </c>
       <c r="H280" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -10398,7 +10398,7 @@
         <v>4.016</v>
       </c>
       <c r="H281" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -10424,7 +10424,7 @@
         <v>1.621</v>
       </c>
       <c r="H282" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -10450,7 +10450,7 @@
         <v>1.3819999999999999</v>
       </c>
       <c r="H283" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -10476,7 +10476,7 @@
         <v>1.5089999999999999</v>
       </c>
       <c r="H284" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -10502,15 +10502,15 @@
         <v>1.282</v>
       </c>
       <c r="H285" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B286" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C286" s="2">
         <v>-26.15</v>
@@ -10528,15 +10528,15 @@
         <v>1.339</v>
       </c>
       <c r="H286" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B287" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C287" s="2">
         <v>-26.08</v>
@@ -10554,15 +10554,15 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="H287" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B288" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C288" s="2">
         <v>-26</v>
@@ -10580,15 +10580,15 @@
         <v>1.6919999999999999</v>
       </c>
       <c r="H288" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B289" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C289" s="2">
         <v>-25.94</v>
@@ -10606,15 +10606,15 @@
         <v>1.9390000000000001</v>
       </c>
       <c r="H289" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B290" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C290" s="2">
         <v>-26.06</v>
@@ -10632,15 +10632,15 @@
         <v>1.597</v>
       </c>
       <c r="H290" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B291" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C291" s="2">
         <v>-26.03</v>
@@ -10658,15 +10658,15 @@
         <v>1.597</v>
       </c>
       <c r="H291" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B292" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C292" s="2">
         <v>-25.52</v>
@@ -10684,15 +10684,15 @@
         <v>1.9670000000000001</v>
       </c>
       <c r="H292" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B293" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C293" s="2">
         <v>-26</v>
@@ -10710,15 +10710,15 @@
         <v>1.772</v>
       </c>
       <c r="H293" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B294" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C294" s="2">
         <v>-26.13</v>
@@ -10736,15 +10736,15 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="H294" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B295" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C295" s="2">
         <v>-25.46</v>
@@ -10762,15 +10762,15 @@
         <v>1.704</v>
       </c>
       <c r="H295" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B296" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C296" s="2">
         <v>-28.19</v>
@@ -10788,15 +10788,15 @@
         <v>1.849</v>
       </c>
       <c r="H296" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B297" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C297" s="2">
         <v>-29.27</v>
@@ -10814,15 +10814,15 @@
         <v>1.522</v>
       </c>
       <c r="H297" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B298" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C298" s="2">
         <v>-29.37</v>
@@ -10840,15 +10840,15 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="H298" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B299" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C299" s="2">
         <v>-25.12</v>
@@ -10866,15 +10866,15 @@
         <v>1.115</v>
       </c>
       <c r="H299" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B300" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C300" s="2">
         <v>-27.89</v>
@@ -10892,15 +10892,15 @@
         <v>1.625</v>
       </c>
       <c r="H300" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B301" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C301" s="2">
         <v>-30.99</v>
@@ -10918,15 +10918,15 @@
         <v>2.1110000000000002</v>
       </c>
       <c r="H301" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B302" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C302" s="2">
         <v>-24</v>
@@ -10944,15 +10944,15 @@
         <v>2.46</v>
       </c>
       <c r="H302" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B303" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C303" s="2">
         <v>-29.35</v>
@@ -10970,15 +10970,15 @@
         <v>3.1030000000000002</v>
       </c>
       <c r="H303" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B304" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C304" s="2">
         <v>-27.71</v>
@@ -10996,15 +10996,15 @@
         <v>3.5329999999999999</v>
       </c>
       <c r="H304" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B305" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C305" s="2">
         <v>-24.81</v>
@@ -11022,15 +11022,15 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H305" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B306" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C306" s="2">
         <v>-27.37</v>
@@ -11048,15 +11048,15 @@
         <v>2.0750000000000002</v>
       </c>
       <c r="H306" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B307" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C307" s="2">
         <v>-27.23</v>
@@ -11074,15 +11074,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="H307" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B308" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C308" s="2">
         <v>-27.74</v>
@@ -11100,7 +11100,7 @@
         <v>3.98</v>
       </c>
       <c r="H308" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -11110,10 +11110,10 @@
       <c r="F309" s="2"/>
       <c r="G309" s="1"/>
       <c r="H309" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I309" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -11144,18 +11144,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" t="s">
         <v>600</v>
-      </c>
-      <c r="C1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B2" s="3">
         <v>45790.503136574102</v>
@@ -11169,7 +11169,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B3" s="3">
         <v>45790.570914351898</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B4" s="3">
         <v>45790.638703703698</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B5" s="3">
         <v>45790.697789351798</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B6" s="3">
         <v>45790.765555555598</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B7" s="3">
         <v>45790.833333333299</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B8" s="3">
         <v>45790.901087963</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B9" s="3">
         <v>45790.968854166698</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B10" s="3">
         <v>45791.509236111102</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B11" s="3">
         <v>45791.577025462997</v>
@@ -11295,7 +11295,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B12" s="3">
         <v>45791.644803240699</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B13" s="3">
         <v>45791.719131944403</v>
@@ -11323,7 +11323,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B14" s="3">
         <v>45791.786898148202</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B15" s="3">
         <v>45791.854664351798</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B16" s="3">
         <v>45791.922442129602</v>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B17" s="3">
         <v>45791.990219907399</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B18" s="3">
         <v>45796.5133796296</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B19" s="3">
         <v>45796.581145833297</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B20" s="3">
         <v>45796.648923611101</v>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B21" s="3">
         <v>45796.707384259302</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B22" s="3">
         <v>45796.775150463</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B23" s="3">
         <v>45796.842916666697</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B24" s="3">
         <v>45796.910694444399</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B25" s="3">
         <v>45796.978472222203</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B26" s="3">
         <v>45797.521701388898</v>
@@ -11505,7 +11505,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B27" s="3">
         <v>45797.589479166701</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B28" s="3">
         <v>45797.657256944403</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B29" s="3">
         <v>45797.717037037</v>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B30" s="3">
         <v>45797.784814814797</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B31" s="3">
         <v>45797.852592592601</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B32" s="3">
         <v>45797.920370370397</v>
@@ -11589,7 +11589,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B33" s="3">
         <v>45797.988148148201</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B34" s="3">
         <v>45798.467071759304</v>
@@ -11617,7 +11617,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B35" s="3">
         <v>45798.534837963001</v>
@@ -11631,7 +11631,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B36" s="3">
         <v>45798.602615740703</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B37" s="3">
         <v>45798.654467592598</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B38" s="3">
         <v>45798.722256944398</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B39" s="3">
         <v>45798.925578703696</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C2:C39)</f>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C42" s="2">
         <f>STDEV(C2:C39)</f>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C43">
         <v>-28.48</v>
